--- a/report2_out.xlsx
+++ b/report2_out.xlsx
@@ -435,7 +435,7 @@
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId32"/>
+        <a:blip cstate="print" r:embed="rId43"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1215,7 +1215,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>554</row>
+      <row>438</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2857500" cy="3810000"/>
@@ -1243,7 +1243,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>554</row>
+      <row>438</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2857500" cy="3810000"/>
@@ -1271,7 +1271,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>572</row>
+      <row>456</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2857500" cy="3810000"/>
@@ -1299,7 +1299,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>572</row>
+      <row>456</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2857500" cy="3810000"/>
@@ -1327,17 +1327,325 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
+      <row>496</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="33" name="Image 33" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>496</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="34" name="Image 34" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>516</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="35" name="Image 35" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>516</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="36" name="Image 36" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>534</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="37" name="Image 37" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>534</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="38" name="Image 38" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>553</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="39" name="Image 39" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
       <row>593</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2857500" cy="3810000"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="33" name="Image 33" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId33"/>
+        <cNvPr id="40" name="Image 40" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>593</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="41" name="Image 41" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>611</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="42" name="Image 42" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>611</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="43" name="Image 43" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>632</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="44" name="Image 44" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId44"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1652,10 +1960,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4518"/>
+  <dimension ref="A1:K632"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A581" workbookViewId="0">
-      <selection activeCell="B591" sqref="B591"/>
+    <sheetView tabSelected="1" topLeftCell="A623" workbookViewId="0">
+      <selection activeCell="A633" sqref="A633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6640625" defaultRowHeight="19.25" customHeight="1"/>
@@ -1671,7 +1979,7 @@
     <row r="1" ht="35" customHeight="1" s="44">
       <c r="A1" s="8" t="inlineStr">
         <is>
-          <t>㈱家具のオツタカ</t>
+          <t>㈱東京ｲﾝﾃﾘｱ 仙台港本店</t>
         </is>
       </c>
       <c r="B1" s="8" t="n"/>
@@ -1968,7 +2276,7 @@
       </c>
       <c r="C73" s="43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 80.4 %</t>
+          <t xml:space="preserve"> 101.0 %</t>
         </is>
       </c>
       <c r="E73" s="6" t="n"/>
@@ -1979,7 +2287,7 @@
       </c>
       <c r="H73" s="40" t="inlineStr">
         <is>
-          <t>-1,964,600</t>
+          <t>115,191</t>
         </is>
       </c>
     </row>
@@ -2050,7 +2358,7 @@
       </c>
       <c r="C97" s="43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 127.5 %</t>
+          <t xml:space="preserve"> 164.2 %</t>
         </is>
       </c>
       <c r="E97" s="6" t="n"/>
@@ -2061,7 +2369,7 @@
       </c>
       <c r="H97" s="40" t="inlineStr">
         <is>
-          <t>1,731,830</t>
+          <t>4,371,028</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2438,7 @@
       </c>
       <c r="C134" s="35" t="inlineStr">
         <is>
-          <t>146,098</t>
+          <t>102,611</t>
         </is>
       </c>
       <c r="E134" s="12" t="n"/>
@@ -2141,7 +2449,7 @@
       </c>
       <c r="H134" s="35" t="inlineStr">
         <is>
-          <t>126,071</t>
+          <t>103,236</t>
         </is>
       </c>
     </row>
@@ -2608,7 +2916,7 @@
       </c>
       <c r="C176" s="35" t="inlineStr">
         <is>
-          <t>69.1 %</t>
+          <t>143.1 %</t>
         </is>
       </c>
       <c r="E176" s="12" t="n"/>
@@ -2619,7 +2927,7 @@
       </c>
       <c r="H176" s="35" t="inlineStr">
         <is>
-          <t>157.5 %</t>
+          <t>168.2 %</t>
         </is>
       </c>
     </row>
@@ -2630,7 +2938,7 @@
         </is>
       </c>
       <c r="C177" s="35" t="n">
-        <v>-831800</v>
+        <v>1109849</v>
       </c>
       <c r="E177" s="12" t="n"/>
       <c r="F177" s="39" t="inlineStr">
@@ -2639,7 +2947,7 @@
         </is>
       </c>
       <c r="H177" s="35" t="n">
-        <v>1999750</v>
+        <v>2571843</v>
       </c>
     </row>
     <row r="178" ht="19.25" customHeight="1" s="44">
@@ -2819,13 +3127,6 @@
         </is>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" s="0" t="inlineStr">
-        <is>
-          <t>購入実績がありません。</t>
-        </is>
-      </c>
-    </row>
     <row r="456" ht="19.25" customHeight="1" s="44">
       <c r="A456" s="32" t="inlineStr">
         <is>
@@ -2833,13 +3134,6 @@
         </is>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" s="0" t="inlineStr">
-        <is>
-          <t>購入実績がありません。</t>
-        </is>
-      </c>
-    </row>
     <row r="475" ht="19.25" customHeight="1" s="44">
       <c r="A475" s="31" t="inlineStr">
         <is>
@@ -2868,13 +3162,6 @@
         </is>
       </c>
     </row>
-    <row r="498">
-      <c r="A498" s="0" t="inlineStr">
-        <is>
-          <t>購入実績がありません。</t>
-        </is>
-      </c>
-    </row>
     <row r="514" ht="19.25" customHeight="1" s="44">
       <c r="A514" s="31" t="inlineStr">
         <is>
@@ -2896,69 +3183,62 @@
         </is>
       </c>
     </row>
-    <row r="536">
-      <c r="A536" s="0" t="inlineStr">
-        <is>
-          <t>購入実績がありません。</t>
-        </is>
-      </c>
-    </row>
     <row r="553" ht="19.25" customHeight="1" s="44">
-      <c r="A553" s="14" t="inlineStr">
+      <c r="A553" s="32" t="inlineStr">
+        <is>
+          <t>■ 月別年齢層推移</t>
+        </is>
+      </c>
+    </row>
+    <row r="592" ht="19.25" customHeight="1" s="44">
+      <c r="A592" s="14" t="inlineStr">
         <is>
           <t>販売員分析</t>
         </is>
       </c>
-      <c r="D553" s="33" t="inlineStr">
+      <c r="D592" s="33" t="inlineStr">
         <is>
           <t>期間</t>
         </is>
       </c>
-      <c r="E553" s="0" t="inlineStr">
+      <c r="E592" s="0" t="inlineStr">
         <is>
           <t>2023-10-1</t>
         </is>
       </c>
-      <c r="G553" s="34" t="inlineStr">
+      <c r="G592" s="34" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H553" s="0" t="inlineStr">
+      <c r="H592" s="0" t="inlineStr">
         <is>
           <t>2024-07-08</t>
         </is>
       </c>
     </row>
-    <row r="554" ht="2" customHeight="1" s="44">
-      <c r="A554" s="20" t="n"/>
-      <c r="B554" s="20" t="n"/>
-      <c r="C554" s="20" t="n"/>
-      <c r="D554" s="21" t="n"/>
-      <c r="E554" s="21" t="n"/>
-      <c r="F554" s="21" t="n"/>
-      <c r="G554" s="20" t="n"/>
-      <c r="H554" s="20" t="n"/>
-      <c r="I554" s="20" t="n"/>
-    </row>
-    <row r="572" ht="19.25" customHeight="1" s="44">
-      <c r="A572" s="32" t="inlineStr">
+    <row r="593" ht="2" customHeight="1" s="44">
+      <c r="A593" s="20" t="n"/>
+      <c r="B593" s="20" t="n"/>
+      <c r="C593" s="20" t="n"/>
+      <c r="D593" s="21" t="n"/>
+      <c r="E593" s="21" t="n"/>
+      <c r="F593" s="21" t="n"/>
+      <c r="G593" s="20" t="n"/>
+      <c r="H593" s="20" t="n"/>
+      <c r="I593" s="20" t="n"/>
+    </row>
+    <row r="611" ht="19.25" customHeight="1" s="44">
+      <c r="A611" s="32" t="inlineStr">
         <is>
           <t>■ 年換算</t>
         </is>
       </c>
     </row>
-    <row r="593" ht="19.25" customHeight="1" s="44">
-      <c r="A593" s="32" t="inlineStr">
-        <is>
-          <t>■ 月別販売員数</t>
-        </is>
-      </c>
-    </row>
-    <row r="4518">
-      <c r="A4518" s="0" t="inlineStr">
-        <is>
-          <t>購入実績がありません。</t>
+    <row r="632" ht="19.25" customHeight="1" s="44">
+      <c r="A632" s="32" t="inlineStr">
+        <is>
+          <t>■ 月別販売者数推移</t>
         </is>
       </c>
     </row>

--- a/report2_out.xlsx
+++ b/report2_out.xlsx
@@ -435,7 +435,7 @@
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId43"/>
+        <a:blip cstate="print" r:embed="rId46"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1327,17 +1327,73 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
+      <row>477</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="33" name="Image 33" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>477</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="34" name="Image 34" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
       <row>496</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2857500" cy="3810000"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="33" name="Image 33" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId32"/>
+        <cNvPr id="35" name="Image 35" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId34"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1361,11 +1417,11 @@
     <ext cx="2857500" cy="3810000"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="34" name="Image 34" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId33"/>
+        <cNvPr id="36" name="Image 36" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId35"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1389,11 +1445,11 @@
     <ext cx="2857500" cy="3810000"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="35" name="Image 35" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId34"/>
+        <cNvPr id="37" name="Image 37" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId36"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1417,11 +1473,11 @@
     <ext cx="2857500" cy="3810000"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="36" name="Image 36" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId35"/>
+        <cNvPr id="38" name="Image 38" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId37"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1445,11 +1501,11 @@
     <ext cx="2857500" cy="3810000"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="37" name="Image 37" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId36"/>
+        <cNvPr id="39" name="Image 39" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId38"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1473,11 +1529,11 @@
     <ext cx="2857500" cy="3810000"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="38" name="Image 38" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId37"/>
+        <cNvPr id="40" name="Image 40" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId39"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1501,11 +1557,11 @@
     <ext cx="5715000" cy="3810000"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="39" name="Image 39" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId38"/>
+        <cNvPr id="41" name="Image 41" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId40"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1529,11 +1585,11 @@
     <ext cx="2857500" cy="3810000"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="40" name="Image 40" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId39"/>
+        <cNvPr id="42" name="Image 42" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId41"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1557,11 +1613,11 @@
     <ext cx="2857500" cy="3810000"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="41" name="Image 41" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId40"/>
+        <cNvPr id="43" name="Image 43" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId42"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1585,11 +1641,11 @@
     <ext cx="2857500" cy="3810000"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="42" name="Image 42" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId41"/>
+        <cNvPr id="44" name="Image 44" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId43"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1613,11 +1669,11 @@
     <ext cx="2857500" cy="3810000"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="43" name="Image 43" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId42"/>
+        <cNvPr id="45" name="Image 45" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId44"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1641,11 +1697,39 @@
     <ext cx="5715000" cy="3810000"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="44" name="Image 44" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId44"/>
+        <cNvPr id="46" name="Image 46" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>593</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="47" name="Image 47" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId47"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2214,7 +2298,7 @@
       <c r="D35" s="2" t="n"/>
       <c r="E35" s="37" t="inlineStr">
         <is>
-          <t>2023/10/02</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="G35" s="11" t="inlineStr">
@@ -2223,7 +2307,7 @@
         </is>
       </c>
       <c r="H35" s="42" t="n">
-        <v>45482</v>
+        <v>45595</v>
       </c>
       <c r="J35" s="2" t="n"/>
       <c r="K35" s="2" t="n"/>
@@ -2276,7 +2360,7 @@
       </c>
       <c r="C73" s="43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101.0 %</t>
+          <t xml:space="preserve"> 26.0 %</t>
         </is>
       </c>
       <c r="E73" s="6" t="n"/>
@@ -2287,7 +2371,7 @@
       </c>
       <c r="H73" s="40" t="inlineStr">
         <is>
-          <t>115,191</t>
+          <t>-8,959,977</t>
         </is>
       </c>
     </row>
@@ -2358,7 +2442,7 @@
       </c>
       <c r="C97" s="43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 164.2 %</t>
+          <t xml:space="preserve"> 84.4 %</t>
         </is>
       </c>
       <c r="E97" s="6" t="n"/>
@@ -2369,7 +2453,7 @@
       </c>
       <c r="H97" s="40" t="inlineStr">
         <is>
-          <t>4,371,028</t>
+          <t>-243,830</t>
         </is>
       </c>
     </row>
@@ -2438,7 +2522,7 @@
       </c>
       <c r="C134" s="35" t="inlineStr">
         <is>
-          <t>102,611</t>
+          <t>146,130</t>
         </is>
       </c>
       <c r="E134" s="12" t="n"/>
@@ -2449,7 +2533,7 @@
       </c>
       <c r="H134" s="35" t="inlineStr">
         <is>
-          <t>103,236</t>
+          <t>155,900</t>
         </is>
       </c>
     </row>
@@ -2916,7 +3000,7 @@
       </c>
       <c r="C176" s="35" t="inlineStr">
         <is>
-          <t>143.1 %</t>
+          <t>58.9 %</t>
         </is>
       </c>
       <c r="E176" s="12" t="n"/>
@@ -2927,7 +3011,7 @@
       </c>
       <c r="H176" s="35" t="inlineStr">
         <is>
-          <t>168.2 %</t>
+          <t>123.9 %</t>
         </is>
       </c>
     </row>
@@ -2938,7 +3022,7 @@
         </is>
       </c>
       <c r="C177" s="35" t="n">
-        <v>1109849</v>
+        <v>-312165</v>
       </c>
       <c r="E177" s="12" t="n"/>
       <c r="F177" s="39" t="inlineStr">
@@ -2947,7 +3031,7 @@
         </is>
       </c>
       <c r="H177" s="35" t="n">
-        <v>2571843</v>
+        <v>167335</v>
       </c>
     </row>
     <row r="178" ht="19.25" customHeight="1" s="44">
@@ -3065,7 +3149,7 @@
       </c>
       <c r="E357" s="0" t="inlineStr">
         <is>
-          <t>2024-01-13</t>
+          <t>2024-05-04</t>
         </is>
       </c>
       <c r="G357" s="34" t="inlineStr">
@@ -3075,7 +3159,7 @@
       </c>
       <c r="H357" s="0" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2024-10-28</t>
         </is>
       </c>
     </row>
@@ -3148,13 +3232,6 @@
         </is>
       </c>
     </row>
-    <row r="480">
-      <c r="A480" s="0" t="inlineStr">
-        <is>
-          <t>購入実績がありません。</t>
-        </is>
-      </c>
-    </row>
     <row r="496" ht="19.25" customHeight="1" s="44">
       <c r="A496" s="32" t="inlineStr">
         <is>
@@ -3213,7 +3290,7 @@
       </c>
       <c r="H592" s="0" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2024-10-28</t>
         </is>
       </c>
     </row>

--- a/report2_out.xlsx
+++ b/report2_out.xlsx
@@ -435,7 +435,7 @@
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId46"/>
+        <a:blip cstate="print" r:embed="rId34"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1215,17 +1215,45 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>438</row>
+      <row>553</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="29" name="Image 29" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>593</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2857500" cy="3810000"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="29" name="Image 29" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId28"/>
+        <cNvPr id="30" name="Image 30" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1243,17 +1271,17 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>438</row>
+      <row>593</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2857500" cy="3810000"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="30" name="Image 30" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId29"/>
+        <cNvPr id="31" name="Image 31" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1271,17 +1299,17 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>456</row>
+      <row>611</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2857500" cy="3810000"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="31" name="Image 31" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId30"/>
+        <cNvPr id="32" name="Image 32" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId31"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1299,17 +1327,17 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>456</row>
+      <row>611</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2857500" cy="3810000"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="32" name="Image 32" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId31"/>
+        <cNvPr id="33" name="Image 33" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId32"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1327,409 +1355,45 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>477</row>
+      <row>632</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="34" name="Image 34" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>593</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2857500" cy="3810000"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="33" name="Image 33" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId32"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>477</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2857500" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="34" name="Image 34" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId33"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>496</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2857500" cy="3810000"/>
-    <pic>
-      <nvPicPr>
         <cNvPr id="35" name="Image 35" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId34"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>496</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2857500" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="36" name="Image 36" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
         <a:blip cstate="print" r:embed="rId35"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>516</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2857500" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="37" name="Image 37" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId36"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>516</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2857500" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="38" name="Image 38" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId37"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>534</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2857500" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="39" name="Image 39" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId38"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>534</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2857500" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="40" name="Image 40" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId39"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>553</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5715000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="41" name="Image 41" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId40"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>593</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2857500" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="42" name="Image 42" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId41"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>593</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2857500" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="43" name="Image 43" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId42"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>611</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2857500" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="44" name="Image 44" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId43"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>611</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2857500" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="45" name="Image 45" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId44"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>632</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5715000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="46" name="Image 46" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId45"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>593</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2857500" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="47" name="Image 47" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId47"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2044,7 +1708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K632"/>
+  <dimension ref="A1:K4518"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A623" workbookViewId="0">
       <selection activeCell="A633" sqref="A633"/>
@@ -2063,7 +1727,7 @@
     <row r="1" ht="35" customHeight="1" s="44">
       <c r="A1" s="8" t="inlineStr">
         <is>
-          <t>㈱東京ｲﾝﾃﾘｱ 仙台港本店</t>
+          <t>㈱家具のオツタカ</t>
         </is>
       </c>
       <c r="B1" s="8" t="n"/>
@@ -2307,7 +1971,7 @@
         </is>
       </c>
       <c r="H35" s="42" t="n">
-        <v>45595</v>
+        <v>45608</v>
       </c>
       <c r="J35" s="2" t="n"/>
       <c r="K35" s="2" t="n"/>
@@ -2360,7 +2024,7 @@
       </c>
       <c r="C73" s="43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 26.0 %</t>
+          <t xml:space="preserve"> 14.2 %</t>
         </is>
       </c>
       <c r="E73" s="6" t="n"/>
@@ -2371,7 +2035,7 @@
       </c>
       <c r="H73" s="40" t="inlineStr">
         <is>
-          <t>-8,959,977</t>
+          <t>-9,441,500</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2106,7 @@
       </c>
       <c r="C97" s="43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 84.4 %</t>
+          <t xml:space="preserve"> 79.5 %</t>
         </is>
       </c>
       <c r="E97" s="6" t="n"/>
@@ -2453,7 +2117,7 @@
       </c>
       <c r="H97" s="40" t="inlineStr">
         <is>
-          <t>-243,830</t>
+          <t>-145,650</t>
         </is>
       </c>
     </row>
@@ -2522,7 +2186,7 @@
       </c>
       <c r="C134" s="35" t="inlineStr">
         <is>
-          <t>146,130</t>
+          <t>94,016</t>
         </is>
       </c>
       <c r="E134" s="12" t="n"/>
@@ -2533,7 +2197,7 @@
       </c>
       <c r="H134" s="35" t="inlineStr">
         <is>
-          <t>155,900</t>
+          <t>118,291</t>
         </is>
       </c>
     </row>
@@ -3000,7 +2664,7 @@
       </c>
       <c r="C176" s="35" t="inlineStr">
         <is>
-          <t>58.9 %</t>
+          <t>nan %</t>
         </is>
       </c>
       <c r="E176" s="12" t="n"/>
@@ -3011,7 +2675,7 @@
       </c>
       <c r="H176" s="35" t="inlineStr">
         <is>
-          <t>123.9 %</t>
+          <t>85.6 %</t>
         </is>
       </c>
     </row>
@@ -3022,7 +2686,7 @@
         </is>
       </c>
       <c r="C177" s="35" t="n">
-        <v>-312165</v>
+        <v>0</v>
       </c>
       <c r="E177" s="12" t="n"/>
       <c r="F177" s="39" t="inlineStr">
@@ -3031,7 +2695,7 @@
         </is>
       </c>
       <c r="H177" s="35" t="n">
-        <v>167335</v>
+        <v>-94650</v>
       </c>
     </row>
     <row r="178" ht="19.25" customHeight="1" s="44">
@@ -3149,7 +2813,7 @@
       </c>
       <c r="E357" s="0" t="inlineStr">
         <is>
-          <t>2024-05-04</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="G357" s="34" t="inlineStr">
@@ -3159,7 +2823,7 @@
       </c>
       <c r="H357" s="0" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-08</t>
         </is>
       </c>
     </row>
@@ -3211,6 +2875,13 @@
         </is>
       </c>
     </row>
+    <row r="441">
+      <c r="A441" s="0" t="inlineStr">
+        <is>
+          <t>購入実績がありません。</t>
+        </is>
+      </c>
+    </row>
     <row r="456" ht="19.25" customHeight="1" s="44">
       <c r="A456" s="32" t="inlineStr">
         <is>
@@ -3218,6 +2889,13 @@
         </is>
       </c>
     </row>
+    <row r="459">
+      <c r="A459" s="0" t="inlineStr">
+        <is>
+          <t>購入実績がありません。</t>
+        </is>
+      </c>
+    </row>
     <row r="475" ht="19.25" customHeight="1" s="44">
       <c r="A475" s="31" t="inlineStr">
         <is>
@@ -3232,6 +2910,13 @@
         </is>
       </c>
     </row>
+    <row r="480">
+      <c r="A480" s="0" t="inlineStr">
+        <is>
+          <t>購入実績がありません。</t>
+        </is>
+      </c>
+    </row>
     <row r="496" ht="19.25" customHeight="1" s="44">
       <c r="A496" s="32" t="inlineStr">
         <is>
@@ -3239,6 +2924,13 @@
         </is>
       </c>
     </row>
+    <row r="498">
+      <c r="A498" s="0" t="inlineStr">
+        <is>
+          <t>購入実績がありません。</t>
+        </is>
+      </c>
+    </row>
     <row r="514" ht="19.25" customHeight="1" s="44">
       <c r="A514" s="31" t="inlineStr">
         <is>
@@ -3260,6 +2952,13 @@
         </is>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" s="0" t="inlineStr">
+        <is>
+          <t>購入実績がありません。</t>
+        </is>
+      </c>
+    </row>
     <row r="553" ht="19.25" customHeight="1" s="44">
       <c r="A553" s="32" t="inlineStr">
         <is>
@@ -3290,7 +2989,7 @@
       </c>
       <c r="H592" s="0" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-08</t>
         </is>
       </c>
     </row>
@@ -3316,6 +3015,13 @@
       <c r="A632" s="32" t="inlineStr">
         <is>
           <t>■ 月別販売者数推移</t>
+        </is>
+      </c>
+    </row>
+    <row r="4518">
+      <c r="A4518" s="0" t="inlineStr">
+        <is>
+          <t>購入実績がありません。</t>
         </is>
       </c>
     </row>
